--- a/instances/InstanceAustriaV2.xlsx
+++ b/instances/InstanceAustriaV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Employees"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="136">
   <si>
     <t>TaskId</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>15.535414</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>EmployeeName</t>
@@ -429,7 +432,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +449,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -484,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -501,11 +510,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -823,7 +838,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -831,14 +846,14 @@
     <col min="2" max="2" style="3" width="19.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="5.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="17.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -849,30 +864,30 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -884,18 +899,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -907,18 +922,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -930,18 +945,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -953,18 +968,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -997,9 +1012,9 @@
     <col min="5" max="5" style="3" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -1016,50 +1031,50 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -1077,16 +1092,16 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
@@ -1927,7 +1942,9 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
@@ -1937,7 +1954,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="2"/>
       <c r="F34" s="7"/>
       <c r="G34" s="2"/>
@@ -1947,7 +1964,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="2"/>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
@@ -1957,7 +1974,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -1967,7 +1984,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="2"/>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -1977,7 +1994,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="2"/>
       <c r="F38" s="7"/>
       <c r="G38" s="2"/>
@@ -1987,7 +2004,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="2"/>
       <c r="F39" s="7"/>
       <c r="G39" s="2"/>
@@ -1997,7 +2014,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="2"/>
       <c r="F40" s="7"/>
       <c r="G40" s="2"/>
@@ -2007,7 +2024,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="2"/>
       <c r="F41" s="7"/>
       <c r="G41" s="2"/>
@@ -2017,7 +2034,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="2"/>
       <c r="F42" s="7"/>
       <c r="G42" s="2"/>
@@ -2027,7 +2044,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="2"/>
       <c r="F43" s="7"/>
       <c r="G43" s="2"/>
@@ -2037,7 +2054,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="2"/>
       <c r="F44" s="7"/>
       <c r="G44" s="2"/>
@@ -2047,7 +2064,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="2"/>
       <c r="F45" s="7"/>
       <c r="G45" s="2"/>
@@ -2057,7 +2074,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="2"/>
       <c r="F46" s="7"/>
       <c r="G46" s="2"/>
@@ -2067,7 +2084,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="2"/>
       <c r="F47" s="7"/>
       <c r="G47" s="2"/>
@@ -2077,7 +2094,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="2"/>
       <c r="F48" s="7"/>
       <c r="G48" s="2"/>
@@ -2087,7 +2104,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="2"/>
       <c r="F49" s="7"/>
       <c r="G49" s="2"/>
@@ -2097,7 +2114,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="2"/>
       <c r="F50" s="7"/>
       <c r="G50" s="2"/>
@@ -2107,7 +2124,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="2"/>
       <c r="F51" s="7"/>
       <c r="G51" s="2"/>
@@ -2117,7 +2134,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="2"/>
       <c r="F52" s="7"/>
       <c r="G52" s="2"/>
@@ -2127,7 +2144,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="2"/>
       <c r="F53" s="7"/>
       <c r="G53" s="2"/>
@@ -2137,7 +2154,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="2"/>
       <c r="F54" s="7"/>
       <c r="G54" s="2"/>
@@ -2147,7 +2164,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="2"/>
       <c r="F55" s="7"/>
       <c r="G55" s="2"/>
@@ -2157,7 +2174,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="2"/>
       <c r="F56" s="7"/>
       <c r="G56" s="2"/>
@@ -2167,7 +2184,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="2"/>
       <c r="F57" s="7"/>
       <c r="G57" s="2"/>
@@ -2177,7 +2194,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
       <c r="G58" s="2"/>
@@ -2187,7 +2204,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="2"/>
       <c r="F59" s="7"/>
       <c r="G59" s="2"/>
@@ -2197,7 +2214,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="2"/>
       <c r="F60" s="7"/>
       <c r="G60" s="2"/>
@@ -2207,7 +2224,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="2"/>
       <c r="F61" s="7"/>
       <c r="G61" s="2"/>
@@ -2217,7 +2234,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="2"/>
       <c r="F62" s="7"/>
       <c r="G62" s="2"/>
@@ -2227,7 +2244,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="2"/>
       <c r="F63" s="7"/>
       <c r="G63" s="2"/>
@@ -2237,7 +2254,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
       <c r="G64" s="2"/>
@@ -2247,7 +2264,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="2"/>
       <c r="F65" s="7"/>
       <c r="G65" s="2"/>
@@ -2257,7 +2274,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="2"/>
       <c r="F66" s="7"/>
       <c r="G66" s="2"/>
@@ -2267,7 +2284,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="2"/>
       <c r="F67" s="7"/>
       <c r="G67" s="2"/>
@@ -2277,7 +2294,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="2"/>
       <c r="F68" s="7"/>
       <c r="G68" s="2"/>
@@ -2287,7 +2304,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="2"/>
       <c r="F69" s="7"/>
       <c r="G69" s="2"/>
@@ -2297,7 +2314,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="2"/>
       <c r="F70" s="7"/>
       <c r="G70" s="2"/>
@@ -2307,7 +2324,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="2"/>
       <c r="F71" s="7"/>
       <c r="G71" s="2"/>
@@ -2317,7 +2334,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="2"/>
       <c r="F72" s="7"/>
       <c r="G72" s="2"/>
@@ -2327,7 +2344,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="2"/>
       <c r="F73" s="7"/>
       <c r="G73" s="2"/>
@@ -2337,7 +2354,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="2"/>
       <c r="F74" s="7"/>
       <c r="G74" s="2"/>
@@ -2347,7 +2364,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="2"/>
       <c r="F75" s="7"/>
       <c r="G75" s="2"/>
@@ -2357,7 +2374,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="2"/>
       <c r="F76" s="7"/>
       <c r="G76" s="2"/>
@@ -2367,7 +2384,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="2"/>
       <c r="F77" s="7"/>
       <c r="G77" s="2"/>
@@ -2377,7 +2394,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="2"/>
       <c r="F78" s="7"/>
       <c r="G78" s="2"/>
@@ -2387,7 +2404,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="2"/>
       <c r="F79" s="7"/>
       <c r="G79" s="2"/>
@@ -2397,7 +2414,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="2"/>
       <c r="F80" s="7"/>
       <c r="G80" s="2"/>
@@ -2407,7 +2424,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="2"/>
       <c r="F81" s="7"/>
       <c r="G81" s="2"/>
@@ -2417,7 +2434,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="2"/>
       <c r="F82" s="7"/>
       <c r="G82" s="2"/>
@@ -2427,7 +2444,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="2"/>
       <c r="F83" s="7"/>
       <c r="G83" s="2"/>
@@ -2437,7 +2454,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="2"/>
       <c r="F84" s="7"/>
       <c r="G84" s="2"/>
@@ -2447,7 +2464,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="2"/>
       <c r="F85" s="7"/>
       <c r="G85" s="2"/>
@@ -2457,7 +2474,7 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="2"/>
       <c r="F86" s="7"/>
       <c r="G86" s="2"/>
@@ -2467,7 +2484,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="2"/>
       <c r="F87" s="7"/>
       <c r="G87" s="2"/>
@@ -2477,7 +2494,7 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="2"/>
       <c r="F88" s="7"/>
       <c r="G88" s="2"/>
@@ -2487,7 +2504,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="2"/>
       <c r="F89" s="7"/>
       <c r="G89" s="2"/>
@@ -2497,7 +2514,7 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="2"/>
       <c r="F90" s="7"/>
       <c r="G90" s="2"/>
@@ -2507,7 +2524,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="2"/>
       <c r="F91" s="7"/>
       <c r="G91" s="2"/>
@@ -2517,7 +2534,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="2"/>
       <c r="F92" s="7"/>
       <c r="G92" s="2"/>
@@ -2527,7 +2544,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="2"/>
       <c r="F93" s="7"/>
       <c r="G93" s="2"/>
@@ -2537,7 +2554,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="2"/>
       <c r="F94" s="7"/>
       <c r="G94" s="2"/>
@@ -2547,7 +2564,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="2"/>
       <c r="F95" s="7"/>
       <c r="G95" s="2"/>
@@ -2557,7 +2574,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="2"/>
       <c r="F96" s="7"/>
       <c r="G96" s="2"/>
@@ -2567,7 +2584,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="2"/>
       <c r="F97" s="7"/>
       <c r="G97" s="2"/>
@@ -2577,7 +2594,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="2"/>
       <c r="F98" s="7"/>
       <c r="G98" s="2"/>
@@ -2587,7 +2604,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="2"/>
       <c r="F99" s="7"/>
       <c r="G99" s="2"/>
@@ -2597,7 +2614,7 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="2"/>
       <c r="F100" s="7"/>
       <c r="G100" s="2"/>
@@ -2607,7 +2624,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="2"/>
       <c r="F101" s="7"/>
       <c r="G101" s="2"/>
@@ -2617,7 +2634,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="2"/>
       <c r="F102" s="7"/>
       <c r="G102" s="2"/>
@@ -2627,7 +2644,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="2"/>
       <c r="F103" s="7"/>
       <c r="G103" s="2"/>
@@ -2637,7 +2654,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="2"/>
       <c r="F104" s="7"/>
       <c r="G104" s="2"/>
@@ -2647,7 +2664,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="2"/>
       <c r="F105" s="7"/>
       <c r="G105" s="2"/>
@@ -2657,7 +2674,7 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="2"/>
       <c r="F106" s="7"/>
       <c r="G106" s="2"/>
@@ -2667,7 +2684,7 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="2"/>
       <c r="F107" s="7"/>
       <c r="G107" s="2"/>
@@ -2677,7 +2694,7 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="2"/>
       <c r="F108" s="7"/>
       <c r="G108" s="2"/>
@@ -2687,7 +2704,7 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="2"/>
       <c r="F109" s="7"/>
       <c r="G109" s="2"/>
@@ -2697,7 +2714,7 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="2"/>
       <c r="F110" s="7"/>
       <c r="G110" s="2"/>
@@ -2707,7 +2724,7 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="2"/>
       <c r="F111" s="7"/>
       <c r="G111" s="2"/>
@@ -2717,7 +2734,7 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="2"/>
       <c r="F112" s="7"/>
       <c r="G112" s="2"/>
@@ -2727,7 +2744,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="6"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="2"/>
       <c r="F113" s="7"/>
       <c r="G113" s="2"/>
@@ -2737,7 +2754,7 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="2"/>
       <c r="F114" s="7"/>
       <c r="G114" s="2"/>
@@ -2747,7 +2764,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="2"/>
       <c r="F115" s="7"/>
       <c r="G115" s="2"/>
@@ -2757,7 +2774,7 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="2"/>
       <c r="F116" s="7"/>
       <c r="G116" s="2"/>
@@ -2767,7 +2784,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="2"/>
       <c r="F117" s="7"/>
       <c r="G117" s="2"/>
@@ -2777,7 +2794,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="2"/>
       <c r="F118" s="7"/>
       <c r="G118" s="2"/>
@@ -2787,7 +2804,7 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="2"/>
       <c r="F119" s="7"/>
       <c r="G119" s="2"/>
@@ -2797,7 +2814,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="2"/>
       <c r="F120" s="7"/>
       <c r="G120" s="2"/>

--- a/instances/InstanceAustriaV2.xlsx
+++ b/instances/InstanceAustriaV2.xlsx
@@ -432,7 +432,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +456,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -493,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,9 +507,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -523,7 +514,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -846,12 +837,12 @@
     <col min="2" max="2" style="3" width="19.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="5.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="17.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -864,7 +855,7 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -874,7 +865,7 @@
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
@@ -887,7 +878,7 @@
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -897,7 +888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -910,7 +901,7 @@
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -920,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -933,7 +924,7 @@
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -943,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>133</v>
       </c>
@@ -956,7 +947,7 @@
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -966,7 +957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -979,7 +970,7 @@
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1099,9 +1090,9 @@
     <col min="1" max="1" style="3" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="6.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
@@ -1946,7 +1937,7 @@
         <v>114</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
@@ -1954,9 +1945,9 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -1964,9 +1955,9 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
@@ -1974,9 +1965,9 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
@@ -1984,9 +1975,9 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
@@ -1994,9 +1985,9 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
@@ -2004,9 +1995,9 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -2014,9 +2005,9 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
@@ -2024,9 +2015,9 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
@@ -2034,9 +2025,9 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
@@ -2044,9 +2035,9 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
@@ -2054,9 +2045,9 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
@@ -2064,9 +2055,9 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
@@ -2074,9 +2065,9 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
@@ -2084,9 +2075,9 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
@@ -2094,9 +2085,9 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
@@ -2104,9 +2095,9 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
@@ -2114,9 +2105,9 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
@@ -2124,9 +2115,9 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
@@ -2134,9 +2125,9 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
@@ -2144,9 +2135,9 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
@@ -2154,9 +2145,9 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
@@ -2164,9 +2155,9 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
@@ -2174,9 +2165,9 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
@@ -2184,9 +2175,9 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
@@ -2194,9 +2185,9 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -2204,9 +2195,9 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
@@ -2214,9 +2205,9 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
@@ -2224,9 +2215,9 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
@@ -2234,9 +2225,9 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
@@ -2244,9 +2235,9 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
@@ -2254,9 +2245,9 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
@@ -2264,9 +2255,9 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
@@ -2274,9 +2265,9 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
@@ -2284,9 +2275,9 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -2294,9 +2285,9 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
@@ -2304,9 +2295,9 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
@@ -2314,9 +2305,9 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
@@ -2324,9 +2315,9 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
@@ -2334,9 +2325,9 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
@@ -2344,9 +2335,9 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
@@ -2354,9 +2345,9 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
@@ -2364,9 +2355,9 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
@@ -2374,9 +2365,9 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
@@ -2384,9 +2375,9 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
@@ -2394,9 +2385,9 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
@@ -2404,9 +2395,9 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
@@ -2414,9 +2405,9 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
@@ -2424,9 +2415,9 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
@@ -2434,9 +2425,9 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="8"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
@@ -2444,9 +2435,9 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
@@ -2454,9 +2445,9 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="5"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
@@ -2464,9 +2455,9 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="8"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
@@ -2474,9 +2465,9 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
@@ -2484,9 +2475,9 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="8"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
@@ -2494,9 +2485,9 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
@@ -2504,9 +2495,9 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="5"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
@@ -2514,9 +2505,9 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
@@ -2524,9 +2515,9 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
@@ -2534,9 +2525,9 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="8"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
@@ -2544,9 +2535,9 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="8"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
@@ -2554,9 +2545,9 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
@@ -2564,9 +2555,9 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
@@ -2574,9 +2565,9 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
@@ -2584,9 +2575,9 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
@@ -2594,9 +2585,9 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="5"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
@@ -2604,9 +2595,9 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="5"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
@@ -2614,9 +2605,9 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="5"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
@@ -2624,9 +2615,9 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="5"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
@@ -2634,9 +2625,9 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
@@ -2644,9 +2635,9 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="8"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
@@ -2654,9 +2645,9 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="7"/>
+      <c r="F104" s="5"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
@@ -2664,9 +2655,9 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
@@ -2674,9 +2665,9 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="8"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
@@ -2684,9 +2675,9 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="8"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="7"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
@@ -2694,9 +2685,9 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="8"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
@@ -2704,9 +2695,9 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="8"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
@@ -2714,9 +2705,9 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="8"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="7"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
@@ -2724,9 +2715,9 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="8"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
@@ -2734,9 +2725,9 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
@@ -2744,9 +2735,9 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="8"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="5"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
@@ -2754,9 +2745,9 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="8"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
@@ -2764,9 +2755,9 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="8"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="7"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
@@ -2774,9 +2765,9 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="8"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
@@ -2784,9 +2775,9 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="8"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="5"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
@@ -2794,9 +2785,9 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="8"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="7"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
@@ -2804,9 +2795,9 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="8"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="7"/>
+      <c r="F119" s="5"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
@@ -2814,9 +2805,9 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="8"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="7"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
